--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Fn1-Itga2b.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H2">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J2">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N2">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O2">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P2">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q2">
-        <v>13.49708695467245</v>
+        <v>48.130781774432</v>
       </c>
       <c r="R2">
-        <v>121.473782592052</v>
+        <v>433.177035969888</v>
       </c>
       <c r="S2">
-        <v>0.001433837655189034</v>
+        <v>0.003502168634788207</v>
       </c>
       <c r="T2">
-        <v>0.001433837655189033</v>
+        <v>0.003502168634788207</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H3">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J3">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.173509</v>
       </c>
       <c r="O3">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P3">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q3">
-        <v>74.32537240934801</v>
+        <v>108.842812297338</v>
       </c>
       <c r="R3">
-        <v>668.9283516841321</v>
+        <v>979.5853106760421</v>
       </c>
       <c r="S3">
-        <v>0.007895816190143049</v>
+        <v>0.007919794137903877</v>
       </c>
       <c r="T3">
-        <v>0.007895816190143049</v>
+        <v>0.007919794137903877</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H4">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J4">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N4">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O4">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P4">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q4">
-        <v>16.37952015882844</v>
+        <v>66.75664705814066</v>
       </c>
       <c r="R4">
-        <v>147.415681429456</v>
+        <v>600.809823523266</v>
       </c>
       <c r="S4">
-        <v>0.001740047527035143</v>
+        <v>0.004857453522910405</v>
       </c>
       <c r="T4">
-        <v>0.001740047527035143</v>
+        <v>0.004857453522910405</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>19.95578266666667</v>
+        <v>29.223446</v>
       </c>
       <c r="H5">
-        <v>59.867348</v>
+        <v>87.670338</v>
       </c>
       <c r="I5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="J5">
-        <v>0.0117373419656925</v>
+        <v>0.0169041244192178</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N5">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O5">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P5">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q5">
-        <v>6.284674635213333</v>
+        <v>8.585449047704666</v>
       </c>
       <c r="R5">
-        <v>56.56207171691999</v>
+        <v>77.269041429342</v>
       </c>
       <c r="S5">
-        <v>0.0006676405933252705</v>
+        <v>0.0006247081236153138</v>
       </c>
       <c r="T5">
-        <v>0.0006676405933252704</v>
+        <v>0.0006247081236153139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I6">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J6">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N6">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O6">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P6">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q6">
-        <v>1107.416624482385</v>
+        <v>2696.691387723253</v>
       </c>
       <c r="R6">
-        <v>9966.74962034147</v>
+        <v>24270.22248950928</v>
       </c>
       <c r="S6">
-        <v>0.1176443229192868</v>
+        <v>0.19622095564641</v>
       </c>
       <c r="T6">
-        <v>0.1176443229192868</v>
+        <v>0.19622095564641</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I7">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J7">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>11.173509</v>
       </c>
       <c r="O7">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P7">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q7">
         <v>6098.29019427503</v>
@@ -883,10 +883,10 @@
         <v>54884.61174847528</v>
       </c>
       <c r="S7">
-        <v>0.647840392685222</v>
+        <v>0.4437335080971377</v>
       </c>
       <c r="T7">
-        <v>0.6478403926852221</v>
+        <v>0.4437335080971376</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4912.03003</v>
       </c>
       <c r="I8">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J8">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N8">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O8">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P8">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q8">
-        <v>1343.916134336795</v>
+        <v>3740.2690868113</v>
       </c>
       <c r="R8">
-        <v>12095.24520903116</v>
+        <v>33662.42178130171</v>
       </c>
       <c r="S8">
-        <v>0.1427684036784769</v>
+        <v>0.272155419018291</v>
       </c>
       <c r="T8">
-        <v>0.142768403678477</v>
+        <v>0.272155419018291</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>4912.03003</v>
       </c>
       <c r="I9">
-        <v>0.9630320723052701</v>
+        <v>0.9471112884046843</v>
       </c>
       <c r="J9">
-        <v>0.9630320723052702</v>
+        <v>0.9471112884046842</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N9">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O9">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P9">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q9">
-        <v>515.6485391159666</v>
+        <v>481.029097245641</v>
       </c>
       <c r="R9">
-        <v>4640.8368520437</v>
+        <v>4329.26187521077</v>
       </c>
       <c r="S9">
-        <v>0.0547789530222843</v>
+        <v>0.03500140564284551</v>
       </c>
       <c r="T9">
-        <v>0.0547789530222843</v>
+        <v>0.03500140564284551</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H10">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I10">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J10">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N10">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O10">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P10">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q10">
-        <v>17.17665955112556</v>
+        <v>61.58453348298667</v>
       </c>
       <c r="R10">
-        <v>154.58993596013</v>
+        <v>554.26080134688</v>
       </c>
       <c r="S10">
-        <v>0.001824730131581484</v>
+        <v>0.004481111953738369</v>
       </c>
       <c r="T10">
-        <v>0.001824730131581484</v>
+        <v>0.004481111953738368</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H11">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I11">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J11">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.173509</v>
       </c>
       <c r="O11">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P11">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q11">
-        <v>94.58793754337002</v>
+        <v>139.26708794638</v>
       </c>
       <c r="R11">
-        <v>851.2914378903301</v>
+        <v>1253.40379151742</v>
       </c>
       <c r="S11">
-        <v>0.01004837169915409</v>
+        <v>0.01013357376054918</v>
       </c>
       <c r="T11">
-        <v>0.01004837169915409</v>
+        <v>0.01013357376054918</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H12">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I12">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J12">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N12">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O12">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P12">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q12">
-        <v>20.84490100151556</v>
+        <v>85.41679179929555</v>
       </c>
       <c r="R12">
-        <v>187.60410901364</v>
+        <v>768.7511261936601</v>
       </c>
       <c r="S12">
-        <v>0.002214418864976923</v>
+        <v>0.006215232707536001</v>
       </c>
       <c r="T12">
-        <v>0.002214418864976924</v>
+        <v>0.006215232707536</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>25.39612333333334</v>
+        <v>37.39212666666667</v>
       </c>
       <c r="H13">
-        <v>76.18837000000001</v>
+        <v>112.17638</v>
       </c>
       <c r="I13">
-        <v>0.01493717330687017</v>
+        <v>0.02162924801792661</v>
       </c>
       <c r="J13">
-        <v>0.01493717330687017</v>
+        <v>0.0216292480179266</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N13">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O13">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P13">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q13">
-        <v>7.998001121366667</v>
+        <v>10.98529578893556</v>
       </c>
       <c r="R13">
-        <v>71.9820100923</v>
+        <v>98.86766210042001</v>
       </c>
       <c r="S13">
-        <v>0.0008496526111576755</v>
+        <v>0.0007993295961030562</v>
       </c>
       <c r="T13">
-        <v>0.0008496526111576755</v>
+        <v>0.0007993295961030562</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H14">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J14">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6763496666666667</v>
+        <v>1.646992</v>
       </c>
       <c r="N14">
-        <v>2.029049</v>
+        <v>4.940976</v>
       </c>
       <c r="O14">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="P14">
-        <v>0.1221603374409683</v>
+        <v>0.2071783517404009</v>
       </c>
       <c r="Q14">
-        <v>11.83667332249356</v>
+        <v>40.873675511664</v>
       </c>
       <c r="R14">
-        <v>106.530059902442</v>
+        <v>367.8630796049761</v>
       </c>
       <c r="S14">
-        <v>0.001257446734911002</v>
+        <v>0.002974115505464378</v>
       </c>
       <c r="T14">
-        <v>0.001257446734911002</v>
+        <v>0.002974115505464377</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H15">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J15">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>11.173509</v>
       </c>
       <c r="O15">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="P15">
-        <v>0.672709052289864</v>
+        <v>0.4685125322965616</v>
       </c>
       <c r="Q15">
-        <v>65.18185410945802</v>
+        <v>92.43161294300101</v>
       </c>
       <c r="R15">
-        <v>586.6366869851221</v>
+        <v>831.8845164870091</v>
       </c>
       <c r="S15">
-        <v>0.006924471715344822</v>
+        <v>0.006725656300970855</v>
       </c>
       <c r="T15">
-        <v>0.006924471715344824</v>
+        <v>0.006725656300970854</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H16">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J16">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.8207906666666666</v>
+        <v>2.284352333333333</v>
       </c>
       <c r="N16">
-        <v>2.462372</v>
+        <v>6.853057</v>
       </c>
       <c r="O16">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="P16">
-        <v>0.1482488566935505</v>
+        <v>0.2873531572796583</v>
       </c>
       <c r="Q16">
-        <v>14.36450916781956</v>
+        <v>56.691153343173</v>
       </c>
       <c r="R16">
-        <v>129.280582510376</v>
+        <v>510.220380088557</v>
       </c>
       <c r="S16">
-        <v>0.00152598662306148</v>
+        <v>0.004125052030920852</v>
       </c>
       <c r="T16">
-        <v>0.00152598662306148</v>
+        <v>0.004125052030920852</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>17.50081933333334</v>
+        <v>24.817167</v>
       </c>
       <c r="H17">
-        <v>52.502458</v>
+        <v>74.45150100000001</v>
       </c>
       <c r="I17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="J17">
-        <v>0.01029341242216722</v>
+        <v>0.01435533915817136</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.31493</v>
+        <v>0.2937863333333333</v>
       </c>
       <c r="N17">
-        <v>0.9447899999999999</v>
+        <v>0.881359</v>
       </c>
       <c r="O17">
-        <v>0.05688175357561716</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="P17">
-        <v>0.05688175357561715</v>
+        <v>0.03695595868337916</v>
       </c>
       <c r="Q17">
-        <v>5.511533032646668</v>
+        <v>7.290944496651</v>
       </c>
       <c r="R17">
-        <v>49.60379729382</v>
+        <v>65.618500469859</v>
       </c>
       <c r="S17">
-        <v>0.0005855073488499123</v>
+        <v>0.0005305153208152758</v>
       </c>
       <c r="T17">
-        <v>0.0005855073488499123</v>
+        <v>0.0005305153208152758</v>
       </c>
     </row>
   </sheetData>
